--- a/AlohAndes/docs/Documentación Base de datos.xlsx
+++ b/AlohAndes/docs/Documentación Base de datos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CODD.sis.virtual.uniandes.edu.co\Estudiantes\Profiles\id.salazar\Documents\Iteracion 1 sql\AlohAndes\AlohAndes\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CODD.sis.virtual.uniandes.edu.co\Estudiantes\Profiles\js.espitia\Downloads\sistransexuale\ite2\PROYECTO\AlohAndes\AlohAndes\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Documentación" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="213">
   <si>
     <t>edad</t>
   </si>
@@ -111,24 +111,12 @@
     <t>Responsables</t>
   </si>
   <si>
-    <t>operador</t>
-  </si>
-  <si>
-    <t>id del operador del responsable</t>
-  </si>
-  <si>
-    <t>NN, FK(operadores.id)</t>
-  </si>
-  <si>
     <t>VARCHAR (60)</t>
   </si>
   <si>
     <t>VARCHAR (20)</t>
   </si>
   <si>
-    <t>NUMBER (3)</t>
-  </si>
-  <si>
     <t>NN, CK(&gt;=18)</t>
   </si>
   <si>
@@ -171,9 +159,6 @@
     <t>habOcupadas</t>
   </si>
   <si>
-    <t>rut</t>
-  </si>
-  <si>
     <t>id del hotel</t>
   </si>
   <si>
@@ -183,9 +168,6 @@
     <t>cantidad de estrellas del hotel</t>
   </si>
   <si>
-    <t>RUT del hotel</t>
-  </si>
-  <si>
     <t>Cantidad de habitaciones disponibles</t>
   </si>
   <si>
@@ -204,9 +186,6 @@
     <t>hora de apertura del hostal</t>
   </si>
   <si>
-    <t>RUT del hostal</t>
-  </si>
-  <si>
     <t>id del hostal</t>
   </si>
   <si>
@@ -264,12 +243,6 @@
     <t>capacidad de la operador</t>
   </si>
   <si>
-    <t>RUT de la vivienda universitaria</t>
-  </si>
-  <si>
-    <t>viviendasunivs</t>
-  </si>
-  <si>
     <t>Tabla de viviendas universitarias registrados en AloHandes</t>
   </si>
   <si>
@@ -282,9 +255,6 @@
     <t>id del Alojamiento</t>
   </si>
   <si>
-    <t>tamanio</t>
-  </si>
-  <si>
     <t>Capacidad en personas del alojamiento</t>
   </si>
   <si>
@@ -303,9 +273,6 @@
     <t>costo</t>
   </si>
   <si>
-    <t>alojamiento</t>
-  </si>
-  <si>
     <t>alojamiento al cual refiere la oferta</t>
   </si>
   <si>
@@ -321,21 +288,12 @@
     <t>NN,FK(alojamientos.id)</t>
   </si>
   <si>
-    <t>NUMBER (8,2)</t>
-  </si>
-  <si>
     <t>costo de la oferta</t>
   </si>
   <si>
-    <t>fecharetiro</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>fecha en que se va a retirar la oferta</t>
-  </si>
-  <si>
     <t>fecha en que se realizó la reserva</t>
   </si>
   <si>
@@ -357,24 +315,15 @@
     <t>fecha en que termina la reserva</t>
   </si>
   <si>
-    <t>oferta</t>
-  </si>
-  <si>
     <t>NN,FK(ofertas.id)</t>
   </si>
   <si>
-    <t>cliente</t>
-  </si>
-  <si>
     <t>NN,FK(clientes.id)</t>
   </si>
   <si>
     <t>cliente que realizo la reserva</t>
   </si>
   <si>
-    <t>oferta al cual refiere la reserva</t>
-  </si>
-  <si>
     <t>servicios</t>
   </si>
   <si>
@@ -387,9 +336,6 @@
     <t>costo del servicio</t>
   </si>
   <si>
-    <t>NUMBER (9,2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">descripcion </t>
   </si>
   <si>
@@ -438,18 +384,12 @@
     <t>numhabitaciones</t>
   </si>
   <si>
-    <t>NN(=1 or =0)</t>
-  </si>
-  <si>
     <t>numero de habitaciones del apto</t>
   </si>
   <si>
     <t>NN(&gt;0)</t>
   </si>
   <si>
-    <t>vdascomunidad</t>
-  </si>
-  <si>
     <t>diasuso</t>
   </si>
   <si>
@@ -504,9 +444,6 @@
     <t xml:space="preserve">numero </t>
   </si>
   <si>
-    <t>VARCHAR (4)</t>
-  </si>
-  <si>
     <t>numero de la habitacion</t>
   </si>
   <si>
@@ -531,9 +468,6 @@
     <t>hotel en que queda la habitacion</t>
   </si>
   <si>
-    <t>habsuniv</t>
-  </si>
-  <si>
     <t>Tabla de habitaciones universitarias registradas en AloHandes</t>
   </si>
   <si>
@@ -552,9 +486,6 @@
     <t>NN,FK(viviendasunivs.id)</t>
   </si>
   <si>
-    <t xml:space="preserve">viviendauniv </t>
-  </si>
-  <si>
     <t>habitaciones</t>
   </si>
   <si>
@@ -571,12 +502,6 @@
   </si>
   <si>
     <t>FK(hostales.id)</t>
-  </si>
-  <si>
-    <t>hostal</t>
-  </si>
-  <si>
-    <t>personanat</t>
   </si>
   <si>
     <t>hostal  a cargo de la vivienda</t>
@@ -616,12 +541,132 @@
   <si>
     <t>NN,CK (in {suite,semisuite
 estandar})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBER </t>
+  </si>
+  <si>
+    <t>idResponsable</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id del responsable del operador  </t>
+  </si>
+  <si>
+    <t>NN, FK(Responsables.id)</t>
+  </si>
+  <si>
+    <t>dirección del hotel</t>
+  </si>
+  <si>
+    <t>VARCHAR(60)</t>
+  </si>
+  <si>
+    <t>nombre de la persona</t>
+  </si>
+  <si>
+    <t>nombre de la  persona</t>
+  </si>
+  <si>
+    <t>viviendasuniversitarias</t>
+  </si>
+  <si>
+    <t>tamanho</t>
+  </si>
+  <si>
+    <t>idAlojamiento</t>
+  </si>
+  <si>
+    <t>idoperador</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>VARCHAR (25)</t>
+  </si>
+  <si>
+    <t>el estado de la oferta</t>
+  </si>
+  <si>
+    <t>NN, CK(in{habilitada, deshabilitada})</t>
+  </si>
+  <si>
+    <t>ofertasreservas</t>
+  </si>
+  <si>
+    <t>idoferta</t>
+  </si>
+  <si>
+    <t>idreserva</t>
+  </si>
+  <si>
+    <t>PK,FK(ofertas.id)</t>
+  </si>
+  <si>
+    <t>PK,FK(reservas.id)</t>
+  </si>
+  <si>
+    <t>Tabla de reservas registradas y sus ofertas correspondientes</t>
+  </si>
+  <si>
+    <t>fechafin</t>
+  </si>
+  <si>
+    <t>fechainicio</t>
+  </si>
+  <si>
+    <t>fecharealizacion</t>
+  </si>
+  <si>
+    <t>idcliente</t>
+  </si>
+  <si>
+    <t>colectiva</t>
+  </si>
+  <si>
+    <t>indica la reserva colectiva a la que pertenece, si pertenece a alguna</t>
+  </si>
+  <si>
+    <t>idOferta, idReserva</t>
+  </si>
+  <si>
+    <t>idpercom</t>
+  </si>
+  <si>
+    <t>VARCHAR (2)</t>
+  </si>
+  <si>
+    <t>NN, CK(in{f,v})</t>
+  </si>
+  <si>
+    <t>viviendascomunidad</t>
+  </si>
+  <si>
+    <t>habsuniversitarias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idvivuniv </t>
+  </si>
+  <si>
+    <t>idpernat</t>
+  </si>
+  <si>
+    <t>idhostal</t>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+  </si>
+  <si>
+    <t>FK(personasnaturales.id)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -827,11 +872,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -891,6 +1047,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1197,18 +1381,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+      <selection activeCell="B175" sqref="B175:D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1260,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -1274,7 +1458,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -1288,7 +1472,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>16</v>
@@ -1299,16 +1483,16 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1361,13 +1545,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,7 +1559,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
@@ -1389,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,7 +1587,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
@@ -1417,7 +1601,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>28</v>
@@ -1476,13 +1660,13 @@
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,7 +1674,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>24</v>
@@ -1504,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,7 +1702,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
@@ -1527,130 +1711,130 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B32" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>8</v>
+      <c r="A34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>2</v>
@@ -1661,10 +1845,10 @@
         <v>22</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>2</v>
@@ -1676,7 +1860,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="26"/>
@@ -1686,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="28"/>
@@ -1720,24 +1904,24 @@
         <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>2</v>
@@ -1745,347 +1929,343 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>8</v>
+      <c r="D55" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="24"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="C71" s="27"/>
+      <c r="D71" s="28"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="24"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="26"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="24"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="26"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="24"/>
+      <c r="D74" s="6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="A75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>168</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,10 +2273,10 @@
         <v>20</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>2</v>
@@ -2107,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2122,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="C80" s="25"/>
       <c r="D80" s="26"/>
@@ -2132,7 +2312,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C81" s="27"/>
       <c r="D81" s="28"/>
@@ -2166,24 +2346,24 @@
         <v>10</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>2</v>
@@ -2191,1164 +2371,1240 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="D87" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" s="25"/>
+      <c r="D89" s="26"/>
+    </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="26"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="28"/>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+      <c r="A90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="27"/>
+      <c r="D90" s="28"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B91" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="24"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="24"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>8</v>
+      <c r="A93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99" s="25"/>
+      <c r="D99" s="26"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" s="27"/>
+      <c r="D100" s="28"/>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="s">
+      <c r="C101" s="23"/>
+      <c r="D101" s="24"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="26"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="28"/>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="23" t="s">
+      <c r="C102" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="23"/>
-      <c r="D102" s="24"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>8</v>
+      <c r="B103" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>167</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D106" s="6"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="29"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C110" s="34"/>
+      <c r="D110" s="35"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" s="31"/>
+      <c r="D111" s="32"/>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C112" s="37"/>
+      <c r="D112" s="38"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="29"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C118" s="34"/>
+      <c r="D118" s="35"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C119" s="31"/>
+      <c r="D119" s="32"/>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="37"/>
+      <c r="D120" s="38"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+      <c r="D126" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C131" s="25"/>
+      <c r="D131" s="26"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C132" s="27"/>
+      <c r="D132" s="28"/>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="23"/>
+      <c r="D133" s="24"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="25" t="s">
+      <c r="C137" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C111" s="25"/>
-      <c r="D111" s="26"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="28"/>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="24"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B124" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C124" s="25"/>
-      <c r="D124" s="26"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C125" s="27"/>
-      <c r="D125" s="28"/>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="23"/>
-      <c r="D126" s="24"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B134" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C134" s="25"/>
-      <c r="D134" s="26"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C135" s="27"/>
-      <c r="D135" s="28"/>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C136" s="23"/>
-      <c r="D136" s="24"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D137" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C141" s="25"/>
+      <c r="D141" s="26"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C142" s="27"/>
+      <c r="D142" s="28"/>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D139" s="6" t="s">
+      <c r="C143" s="23"/>
+      <c r="D143" s="24"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C145" s="25"/>
-      <c r="D145" s="26"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C146" s="27"/>
-      <c r="D146" s="28"/>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B147" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" s="23"/>
-      <c r="D147" s="24"/>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>8</v>
+      <c r="A148" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C152" s="25"/>
+      <c r="D152" s="26"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C153" s="27"/>
+      <c r="D153" s="28"/>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D150" s="6" t="s">
+      <c r="C154" s="23"/>
+      <c r="D154" s="24"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B156" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="C156" s="25"/>
-      <c r="D156" s="26"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C157" s="27"/>
-      <c r="D157" s="28"/>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C158" s="23"/>
-      <c r="D158" s="24"/>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>8</v>
+      <c r="A159" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C163" s="25"/>
+      <c r="D163" s="26"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C164" s="27"/>
+      <c r="D164" s="28"/>
+    </row>
+    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B161" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C161" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D161" s="22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D162" s="6" t="s">
+      <c r="C165" s="23"/>
+      <c r="D165" s="24"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B168" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D168" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D169" s="6" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B166" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C166" s="25"/>
-      <c r="D166" s="26"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C167" s="27"/>
-      <c r="D167" s="28"/>
-    </row>
-    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" s="23"/>
-      <c r="D168" s="24"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D169" s="12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C173" s="25"/>
+      <c r="D173" s="26"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C174" s="27"/>
+      <c r="D174" s="28"/>
+    </row>
+    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D171" s="6" t="s">
+      <c r="C175" s="23"/>
+      <c r="D175" s="24"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D178" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D172" s="6" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D179" s="6" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B176" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C176" s="25"/>
-      <c r="D176" s="26"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C177" s="27"/>
-      <c r="D177" s="28"/>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C178" s="23"/>
-      <c r="D178" s="24"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D179" s="12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C183" s="25"/>
+      <c r="D183" s="26"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C184" s="27"/>
+      <c r="D184" s="28"/>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
+      <c r="C185" s="23"/>
+      <c r="D185" s="24"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D191" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D182" s="6"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D184" s="9" t="s">
-        <v>183</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+  <mergeCells count="57">
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
@@ -3358,30 +3614,27 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
